--- a/biology/Botanique/Glenodiniopsidaceae/Glenodiniopsidaceae.xlsx
+++ b/biology/Botanique/Glenodiniopsidaceae/Glenodiniopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glenodiniopsidaceae  sont une famille d'algues dinoflagellées de l’ordre des Peridiniales.
-D'après Highfill, la famille ne contiendrait que la seule espèce Glenodiniopsis steinii (Lemmermann) Woloszynska[2], une dinoflagellée vivant en eau douce.
+D'après Highfill, la famille ne contiendrait que la seule espèce Glenodiniopsis steinii (Lemmermann) Woloszynska, une dinoflagellée vivant en eau douce.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Glenodiniopsis, construit à partir du préfixe glenodini-, qui est une allusion au genre Glenodinium, et du suffixe -opsis, « qui ressemble à », probablement en raison de la similitude entre les deux genres.
 </t>
@@ -543,14 +557,16 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (11 janvier 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (11 janvier 2022)
 Glenodiniopsis, Woloszynska, 1916
 Glenodiniopsis pretiosa, Er.Lindemann
 Glenodiniopsis steinii, Wołoszyńska
 Glenodiniopsis uliginosa, (A.J.Schilling) Woloszynska
-Selon NCBI  (11 janvier 2022)[3] :
+Selon NCBI  (11 janvier 2022) :
 genre Sphaerodinium</t>
         </is>
       </c>
@@ -579,16 +595,18 @@
           <t>Genre synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2022)[4]
-Glenodinium, Klebs, 1912[5]
-AlgaeBase                                           (11 janvier 2022)[1] mentionne :
-Glenodinium, Ehrenberg, 1836[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2022)
+Glenodinium, Klebs, 1912
+AlgaeBase                                           (11 janvier 2022) mentionne :
+Glenodinium, Ehrenberg, 1836
 			Glenodinium emarginatum par Georg Klebs 1912
 			Glenodinium cinctum
-La distinction entre Glenodinium et Glenodiniopsis n'est pas claire. Certaines travaux tentent d'en distinguer les espèces. Citons par exemple une étude comparative de 1967, entre Glenodiniopsis uliginosa (Schilling) Wornsz, 1916 et Glenodinium steinii Lemm, 1900, qui repose sur des subtilités morphologiques (forme et position du noyau, dimensions cellulaires, position et forme des chromatophores... )[7].
-AlgaeBase [1] classe d'ailleurs le genre Glenodinium dans les Peridiniales incertae sedis, c'est-à-dire dont la classification n'est pas totalement définie[6].
+La distinction entre Glenodinium et Glenodiniopsis n'est pas claire. Certaines travaux tentent d'en distinguer les espèces. Citons par exemple une étude comparative de 1967, entre Glenodiniopsis uliginosa (Schilling) Wornsz, 1916 et Glenodinium steinii Lemm, 1900, qui repose sur des subtilités morphologiques (forme et position du noyau, dimensions cellulaires, position et forme des chromatophores... ).
+AlgaeBase  classe d'ailleurs le genre Glenodinium dans les Peridiniales incertae sedis, c'est-à-dire dont la classification n'est pas totalement définie.
 </t>
         </is>
       </c>
